--- a/ConsoleApp1/Sample/6-Input.xlsx
+++ b/ConsoleApp1/Sample/6-Input.xlsx
@@ -887,9 +887,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C322CB-7D2F-411B-8619-5368304B085C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA52515E-A5AA-4BDC-8207-6EF58C39B3A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39423E1C-24D3-46A7-9C69-57DA094B22E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D7AD72-6A6E-4A3B-B143-F0AEF40C6691}"/>
 </file>